--- a/output/test_set_output_LR_calculated.xlsx
+++ b/output/test_set_output_LR_calculated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.UIT\Nam 4\Hoc ky 2\Khai thac du lieu truyen thong xa hoi - IE403.K21\3. Implementing\Source\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.UIT\Nam 4\Hoc ky 2\Khai thac du lieu truyen thong xa hoi - IE403.K21\Nhom3-15520395-15520632-15520710-16520568\Source\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AB7416-50CB-4BD8-A34B-6E4691F7C115}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8E5A2C-FCD8-42A9-810B-905952799EE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="710">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -2142,25 +2142,25 @@
     <t>đôi mắt đằm thắm vãi</t>
   </si>
   <si>
-    <t>anger = 6/40</t>
-  </si>
-  <si>
-    <t>Disgust = 85/132</t>
-  </si>
-  <si>
-    <t>Enjoyment = 147/193</t>
-  </si>
-  <si>
-    <t>Fear = 22/46</t>
-  </si>
-  <si>
-    <t>Other = 70/129</t>
-  </si>
-  <si>
-    <t>Sadness = 80/116</t>
-  </si>
-  <si>
-    <t>Surprise = 4/37</t>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Weighted-F1</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -2577,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M695"/>
+  <dimension ref="A1:O695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -2593,7 +2593,7 @@
     <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,29 +2606,12 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="H1" t="s">
-        <v>704</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="J1" t="s">
-        <v>706</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="L1" t="s">
-        <v>708</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="G1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2657,7 +2640,7 @@
         <v>0.59740259740259738</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2682,7 +2665,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2702,8 +2685,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2723,8 +2730,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>85</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2744,8 +2775,35 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="G6" t="s">
+        <v>703</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>147</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2765,8 +2823,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2786,8 +2868,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>32</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2807,8 +2913,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2828,8 +2958,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2849,8 +3003,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2870,8 +3045,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="K12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2891,8 +3069,39 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="H13" t="s">
+        <v>706</v>
+      </c>
+      <c r="I13">
+        <f>I4/SUM(I4:I10)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J13">
+        <f>J5/SUM(J4:J10)</f>
+        <v>0.50898203592814373</v>
+      </c>
+      <c r="K13">
+        <f>K6/SUM(K4:K10)</f>
+        <v>0.60245901639344257</v>
+      </c>
+      <c r="L13">
+        <f>L7/SUM(L4:L10)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="M13">
+        <f>M8/SUM(M4:M10)</f>
+        <v>0.56910569105691056</v>
+      </c>
+      <c r="N13">
+        <f>N9/SUM(N4:N10)</f>
+        <v>0.73394495412844041</v>
+      </c>
+      <c r="O13">
+        <f>O10/SUM(O4:O10)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2912,8 +3121,39 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="H14" t="s">
+        <v>707</v>
+      </c>
+      <c r="I14">
+        <f>I4/SUM($I$4:$O$4)</f>
+        <v>0.15</v>
+      </c>
+      <c r="J14">
+        <f>J5/SUM(I5:O5)</f>
+        <v>0.64393939393939392</v>
+      </c>
+      <c r="K14">
+        <f>K6/SUM(I6:O6)</f>
+        <v>0.76165803108808294</v>
+      </c>
+      <c r="L14">
+        <f>L7/SUM(I7:O7)</f>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="M14">
+        <f>M8/SUM(I8:O8)</f>
+        <v>0.54263565891472865</v>
+      </c>
+      <c r="N14">
+        <f>N9/SUM(I9:O9)</f>
+        <v>0.68965517241379315</v>
+      </c>
+      <c r="O14">
+        <f>O10/SUM(I10:O10)</f>
+        <v>0.10810810810810811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2933,8 +3173,39 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="H15" t="s">
+        <v>708</v>
+      </c>
+      <c r="I15">
+        <f>2*I13*I14/(I13+I14)</f>
+        <v>0.21818181818181814</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:O15" si="1">2*J13*J14/(J13+J14)</f>
+        <v>0.56856187290969895</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.67276887871853541</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2954,8 +3225,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="H16" t="s">
+        <v>705</v>
+      </c>
+      <c r="I16">
+        <f>(SUM(I4:O4)*I15+SUM(I5:O5)*J15+SUM(I6:O6)*K15+SUM(I7:O7)*L15+SUM(I8:O8)*M15+SUM(I9:O9)*N15+SUM(I10:O10)*O15)/SUM(I4:O10)</f>
+        <v>0.57987880689496396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2975,8 +3253,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="H17" t="s">
+        <v>709</v>
+      </c>
+      <c r="I17">
+        <f>(I4+J5+K6+L7+M8+N9+O10)/SUM(I4:O10)</f>
+        <v>0.59740259740259738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2997,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3018,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3039,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3060,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3081,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3102,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3123,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3144,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3165,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3186,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3207,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3228,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3249,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3270,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4022,7 +4307,7 @@
         <v>9</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="1">IF(C67=E67,1,0)</f>
+        <f t="shared" ref="F67:F130" si="2">IF(C67=E67,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4043,7 +4328,7 @@
         <v>9</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4064,7 +4349,7 @@
         <v>4</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4085,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4106,7 +4391,7 @@
         <v>6</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4127,7 +4412,7 @@
         <v>6</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4148,7 +4433,7 @@
         <v>6</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4169,7 +4454,7 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4190,7 +4475,7 @@
         <v>7</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4211,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4232,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4253,7 +4538,7 @@
         <v>10</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4274,7 +4559,7 @@
         <v>4</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4295,7 +4580,7 @@
         <v>9</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4316,7 +4601,7 @@
         <v>4</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4337,7 +4622,7 @@
         <v>7</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4358,7 +4643,7 @@
         <v>9</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4379,7 +4664,7 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4400,7 +4685,7 @@
         <v>4</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4421,7 +4706,7 @@
         <v>7</v>
       </c>
       <c r="F86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4442,7 +4727,7 @@
         <v>6</v>
       </c>
       <c r="F87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4463,7 +4748,7 @@
         <v>10</v>
       </c>
       <c r="F88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4484,7 +4769,7 @@
         <v>6</v>
       </c>
       <c r="F89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4505,7 +4790,7 @@
         <v>9</v>
       </c>
       <c r="F90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4526,7 +4811,7 @@
         <v>8</v>
       </c>
       <c r="F91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4547,7 +4832,7 @@
         <v>10</v>
       </c>
       <c r="F92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4568,7 +4853,7 @@
         <v>6</v>
       </c>
       <c r="F93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4589,7 +4874,7 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4610,7 +4895,7 @@
         <v>4</v>
       </c>
       <c r="F95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4631,7 +4916,7 @@
         <v>10</v>
       </c>
       <c r="F96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4652,7 +4937,7 @@
         <v>9</v>
       </c>
       <c r="F97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4673,7 +4958,7 @@
         <v>10</v>
       </c>
       <c r="F98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4694,7 +4979,7 @@
         <v>4</v>
       </c>
       <c r="F99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4715,7 +5000,7 @@
         <v>10</v>
       </c>
       <c r="F100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4736,7 +5021,7 @@
         <v>6</v>
       </c>
       <c r="F101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4757,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="F102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4778,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="F103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4799,7 +5084,7 @@
         <v>6</v>
       </c>
       <c r="F104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4820,7 +5105,7 @@
         <v>6</v>
       </c>
       <c r="F105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4841,7 +5126,7 @@
         <v>9</v>
       </c>
       <c r="F106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4862,7 +5147,7 @@
         <v>10</v>
       </c>
       <c r="F107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4883,7 +5168,7 @@
         <v>9</v>
       </c>
       <c r="F108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4904,7 +5189,7 @@
         <v>9</v>
       </c>
       <c r="F109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4925,7 +5210,7 @@
         <v>9</v>
       </c>
       <c r="F110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4946,7 +5231,7 @@
         <v>10</v>
       </c>
       <c r="F111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4967,7 +5252,7 @@
         <v>4</v>
       </c>
       <c r="F112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4988,7 +5273,7 @@
         <v>6</v>
       </c>
       <c r="F113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5009,7 +5294,7 @@
         <v>6</v>
       </c>
       <c r="F114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5030,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="F115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5051,7 +5336,7 @@
         <v>10</v>
       </c>
       <c r="F116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5072,7 +5357,7 @@
         <v>9</v>
       </c>
       <c r="F117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5093,7 +5378,7 @@
         <v>6</v>
       </c>
       <c r="F118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5114,7 +5399,7 @@
         <v>6</v>
       </c>
       <c r="F119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5135,7 +5420,7 @@
         <v>9</v>
       </c>
       <c r="F120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5156,7 +5441,7 @@
         <v>4</v>
       </c>
       <c r="F121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5177,7 +5462,7 @@
         <v>4</v>
       </c>
       <c r="F122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5198,7 +5483,7 @@
         <v>10</v>
       </c>
       <c r="F123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5219,7 +5504,7 @@
         <v>10</v>
       </c>
       <c r="F124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5240,7 +5525,7 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5261,7 +5546,7 @@
         <v>10</v>
       </c>
       <c r="F126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5282,7 +5567,7 @@
         <v>9</v>
       </c>
       <c r="F127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5303,7 +5588,7 @@
         <v>10</v>
       </c>
       <c r="F128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5324,7 +5609,7 @@
         <v>4</v>
       </c>
       <c r="F129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5345,7 +5630,7 @@
         <v>4</v>
       </c>
       <c r="F130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5366,7 +5651,7 @@
         <v>6</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="2">IF(C131=E131,1,0)</f>
+        <f t="shared" ref="F131:F194" si="3">IF(C131=E131,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -5387,7 +5672,7 @@
         <v>4</v>
       </c>
       <c r="F132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5408,7 +5693,7 @@
         <v>10</v>
       </c>
       <c r="F133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5429,7 +5714,7 @@
         <v>9</v>
       </c>
       <c r="F134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5450,7 +5735,7 @@
         <v>9</v>
       </c>
       <c r="F135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5471,7 +5756,7 @@
         <v>10</v>
       </c>
       <c r="F136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5492,7 +5777,7 @@
         <v>9</v>
       </c>
       <c r="F137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5513,7 +5798,7 @@
         <v>10</v>
       </c>
       <c r="F138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5534,7 +5819,7 @@
         <v>8</v>
       </c>
       <c r="F139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5555,7 +5840,7 @@
         <v>10</v>
       </c>
       <c r="F140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5576,7 +5861,7 @@
         <v>9</v>
       </c>
       <c r="F141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5597,7 +5882,7 @@
         <v>10</v>
       </c>
       <c r="F142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5618,7 +5903,7 @@
         <v>10</v>
       </c>
       <c r="F143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5639,7 +5924,7 @@
         <v>9</v>
       </c>
       <c r="F144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5660,7 +5945,7 @@
         <v>10</v>
       </c>
       <c r="F145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5681,7 +5966,7 @@
         <v>10</v>
       </c>
       <c r="F146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5702,7 +5987,7 @@
         <v>10</v>
       </c>
       <c r="F147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5723,7 +6008,7 @@
         <v>10</v>
       </c>
       <c r="F148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5744,7 +6029,7 @@
         <v>9</v>
       </c>
       <c r="F149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5765,7 +6050,7 @@
         <v>6</v>
       </c>
       <c r="F150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5786,7 +6071,7 @@
         <v>10</v>
       </c>
       <c r="F151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5807,7 +6092,7 @@
         <v>6</v>
       </c>
       <c r="F152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5828,7 +6113,7 @@
         <v>7</v>
       </c>
       <c r="F153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5849,7 +6134,7 @@
         <v>5</v>
       </c>
       <c r="F154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5870,7 +6155,7 @@
         <v>6</v>
       </c>
       <c r="F155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5891,7 +6176,7 @@
         <v>4</v>
       </c>
       <c r="F156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5912,7 +6197,7 @@
         <v>6</v>
       </c>
       <c r="F157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5933,7 +6218,7 @@
         <v>10</v>
       </c>
       <c r="F158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5954,7 +6239,7 @@
         <v>10</v>
       </c>
       <c r="F159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5975,7 +6260,7 @@
         <v>4</v>
       </c>
       <c r="F160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5996,7 +6281,7 @@
         <v>4</v>
       </c>
       <c r="F161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6017,7 +6302,7 @@
         <v>8</v>
       </c>
       <c r="F162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6038,7 +6323,7 @@
         <v>10</v>
       </c>
       <c r="F163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6059,7 +6344,7 @@
         <v>10</v>
       </c>
       <c r="F164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6080,7 +6365,7 @@
         <v>4</v>
       </c>
       <c r="F165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6101,7 +6386,7 @@
         <v>10</v>
       </c>
       <c r="F166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6122,7 +6407,7 @@
         <v>10</v>
       </c>
       <c r="F167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6143,7 +6428,7 @@
         <v>4</v>
       </c>
       <c r="F168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6164,7 +6449,7 @@
         <v>6</v>
       </c>
       <c r="F169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6185,7 +6470,7 @@
         <v>10</v>
       </c>
       <c r="F170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6206,7 +6491,7 @@
         <v>10</v>
       </c>
       <c r="F171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6227,7 +6512,7 @@
         <v>10</v>
       </c>
       <c r="F172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6248,7 +6533,7 @@
         <v>9</v>
       </c>
       <c r="F173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6269,7 +6554,7 @@
         <v>9</v>
       </c>
       <c r="F174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6290,7 +6575,7 @@
         <v>10</v>
       </c>
       <c r="F175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6311,7 +6596,7 @@
         <v>10</v>
       </c>
       <c r="F176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6332,7 +6617,7 @@
         <v>6</v>
       </c>
       <c r="F177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6353,7 +6638,7 @@
         <v>10</v>
       </c>
       <c r="F178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6374,7 +6659,7 @@
         <v>10</v>
       </c>
       <c r="F179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6395,7 +6680,7 @@
         <v>10</v>
       </c>
       <c r="F180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6416,7 +6701,7 @@
         <v>4</v>
       </c>
       <c r="F181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6437,7 +6722,7 @@
         <v>6</v>
       </c>
       <c r="F182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6458,7 +6743,7 @@
         <v>4</v>
       </c>
       <c r="F183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6479,7 +6764,7 @@
         <v>4</v>
       </c>
       <c r="F184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6500,7 +6785,7 @@
         <v>9</v>
       </c>
       <c r="F185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6521,7 +6806,7 @@
         <v>10</v>
       </c>
       <c r="F186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6542,7 +6827,7 @@
         <v>4</v>
       </c>
       <c r="F187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6563,7 +6848,7 @@
         <v>7</v>
       </c>
       <c r="F188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6584,7 +6869,7 @@
         <v>6</v>
       </c>
       <c r="F189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6605,7 +6890,7 @@
         <v>6</v>
       </c>
       <c r="F190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6626,7 +6911,7 @@
         <v>6</v>
       </c>
       <c r="F191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6647,7 +6932,7 @@
         <v>6</v>
       </c>
       <c r="F192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6668,7 +6953,7 @@
         <v>10</v>
       </c>
       <c r="F193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6689,7 +6974,7 @@
         <v>10</v>
       </c>
       <c r="F194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6710,7 +6995,7 @@
         <v>9</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F258" si="3">IF(C195=E195,1,0)</f>
+        <f t="shared" ref="F195:F258" si="4">IF(C195=E195,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -6731,7 +7016,7 @@
         <v>10</v>
       </c>
       <c r="F196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6752,7 +7037,7 @@
         <v>6</v>
       </c>
       <c r="F197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6773,7 +7058,7 @@
         <v>9</v>
       </c>
       <c r="F198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6794,7 +7079,7 @@
         <v>4</v>
       </c>
       <c r="F199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6815,7 +7100,7 @@
         <v>10</v>
       </c>
       <c r="F200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6836,7 +7121,7 @@
         <v>6</v>
       </c>
       <c r="F201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6857,7 +7142,7 @@
         <v>10</v>
       </c>
       <c r="F202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6878,7 +7163,7 @@
         <v>10</v>
       </c>
       <c r="F203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6899,7 +7184,7 @@
         <v>6</v>
       </c>
       <c r="F204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6920,7 +7205,7 @@
         <v>4</v>
       </c>
       <c r="F205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6941,7 +7226,7 @@
         <v>4</v>
       </c>
       <c r="F206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6962,7 +7247,7 @@
         <v>9</v>
       </c>
       <c r="F207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6983,7 +7268,7 @@
         <v>6</v>
       </c>
       <c r="F208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7004,7 +7289,7 @@
         <v>4</v>
       </c>
       <c r="F209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7025,7 +7310,7 @@
         <v>10</v>
       </c>
       <c r="F210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7046,7 +7331,7 @@
         <v>7</v>
       </c>
       <c r="F211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7067,7 +7352,7 @@
         <v>10</v>
       </c>
       <c r="F212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7088,7 +7373,7 @@
         <v>6</v>
       </c>
       <c r="F213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7109,7 +7394,7 @@
         <v>6</v>
       </c>
       <c r="F214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7130,7 +7415,7 @@
         <v>6</v>
       </c>
       <c r="F215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7151,7 +7436,7 @@
         <v>10</v>
       </c>
       <c r="F216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7172,7 +7457,7 @@
         <v>10</v>
       </c>
       <c r="F217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7193,7 +7478,7 @@
         <v>10</v>
       </c>
       <c r="F218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7214,7 +7499,7 @@
         <v>10</v>
       </c>
       <c r="F219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7235,7 +7520,7 @@
         <v>10</v>
       </c>
       <c r="F220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7256,7 +7541,7 @@
         <v>6</v>
       </c>
       <c r="F221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7277,7 +7562,7 @@
         <v>10</v>
       </c>
       <c r="F222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7298,7 +7583,7 @@
         <v>10</v>
       </c>
       <c r="F223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7319,7 +7604,7 @@
         <v>6</v>
       </c>
       <c r="F224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7340,7 +7625,7 @@
         <v>9</v>
       </c>
       <c r="F225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7361,7 +7646,7 @@
         <v>10</v>
       </c>
       <c r="F226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7382,7 +7667,7 @@
         <v>6</v>
       </c>
       <c r="F227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7403,7 +7688,7 @@
         <v>10</v>
       </c>
       <c r="F228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7424,7 +7709,7 @@
         <v>7</v>
       </c>
       <c r="F229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7445,7 +7730,7 @@
         <v>10</v>
       </c>
       <c r="F230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7466,7 +7751,7 @@
         <v>6</v>
       </c>
       <c r="F231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7487,7 +7772,7 @@
         <v>8</v>
       </c>
       <c r="F232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7508,7 +7793,7 @@
         <v>10</v>
       </c>
       <c r="F233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7529,7 +7814,7 @@
         <v>9</v>
       </c>
       <c r="F234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7550,7 +7835,7 @@
         <v>6</v>
       </c>
       <c r="F235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7571,7 +7856,7 @@
         <v>10</v>
       </c>
       <c r="F236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7592,7 +7877,7 @@
         <v>7</v>
       </c>
       <c r="F237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7613,7 +7898,7 @@
         <v>4</v>
       </c>
       <c r="F238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7634,7 +7919,7 @@
         <v>10</v>
       </c>
       <c r="F239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7655,7 +7940,7 @@
         <v>4</v>
       </c>
       <c r="F240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7676,7 +7961,7 @@
         <v>7</v>
       </c>
       <c r="F241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7697,7 +7982,7 @@
         <v>10</v>
       </c>
       <c r="F242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7718,7 +8003,7 @@
         <v>10</v>
       </c>
       <c r="F243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7739,7 +8024,7 @@
         <v>4</v>
       </c>
       <c r="F244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7760,7 +8045,7 @@
         <v>9</v>
       </c>
       <c r="F245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7781,7 +8066,7 @@
         <v>6</v>
       </c>
       <c r="F246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7802,7 +8087,7 @@
         <v>10</v>
       </c>
       <c r="F247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7823,7 +8108,7 @@
         <v>6</v>
       </c>
       <c r="F248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7844,7 +8129,7 @@
         <v>10</v>
       </c>
       <c r="F249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7865,7 +8150,7 @@
         <v>9</v>
       </c>
       <c r="F250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7886,7 +8171,7 @@
         <v>10</v>
       </c>
       <c r="F251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7907,7 +8192,7 @@
         <v>9</v>
       </c>
       <c r="F252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7928,7 +8213,7 @@
         <v>4</v>
       </c>
       <c r="F253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7949,7 +8234,7 @@
         <v>5</v>
       </c>
       <c r="F254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7970,7 +8255,7 @@
         <v>9</v>
       </c>
       <c r="F255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7991,7 +8276,7 @@
         <v>4</v>
       </c>
       <c r="F256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8012,7 +8297,7 @@
         <v>10</v>
       </c>
       <c r="F257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8033,7 +8318,7 @@
         <v>4</v>
       </c>
       <c r="F258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8054,7 +8339,7 @@
         <v>10</v>
       </c>
       <c r="F259">
-        <f t="shared" ref="F259:F322" si="4">IF(C259=E259,1,0)</f>
+        <f t="shared" ref="F259:F322" si="5">IF(C259=E259,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8075,7 +8360,7 @@
         <v>7</v>
       </c>
       <c r="F260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8096,7 +8381,7 @@
         <v>9</v>
       </c>
       <c r="F261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8117,7 +8402,7 @@
         <v>4</v>
       </c>
       <c r="F262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8138,7 +8423,7 @@
         <v>9</v>
       </c>
       <c r="F263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8159,7 +8444,7 @@
         <v>10</v>
       </c>
       <c r="F264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8180,7 +8465,7 @@
         <v>6</v>
       </c>
       <c r="F265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8201,7 +8486,7 @@
         <v>10</v>
       </c>
       <c r="F266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8222,7 +8507,7 @@
         <v>6</v>
       </c>
       <c r="F267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8243,7 +8528,7 @@
         <v>10</v>
       </c>
       <c r="F268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8264,7 +8549,7 @@
         <v>10</v>
       </c>
       <c r="F269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8285,7 +8570,7 @@
         <v>10</v>
       </c>
       <c r="F270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8306,7 +8591,7 @@
         <v>10</v>
       </c>
       <c r="F271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8327,7 +8612,7 @@
         <v>6</v>
       </c>
       <c r="F272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8348,7 +8633,7 @@
         <v>10</v>
       </c>
       <c r="F273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8369,7 +8654,7 @@
         <v>7</v>
       </c>
       <c r="F274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8390,7 +8675,7 @@
         <v>10</v>
       </c>
       <c r="F275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8411,7 +8696,7 @@
         <v>9</v>
       </c>
       <c r="F276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8432,7 +8717,7 @@
         <v>10</v>
       </c>
       <c r="F277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8453,7 +8738,7 @@
         <v>9</v>
       </c>
       <c r="F278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8474,7 +8759,7 @@
         <v>4</v>
       </c>
       <c r="F279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8495,7 +8780,7 @@
         <v>10</v>
       </c>
       <c r="F280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8516,7 +8801,7 @@
         <v>9</v>
       </c>
       <c r="F281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8537,7 +8822,7 @@
         <v>10</v>
       </c>
       <c r="F282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8558,7 +8843,7 @@
         <v>6</v>
       </c>
       <c r="F283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8579,7 +8864,7 @@
         <v>9</v>
       </c>
       <c r="F284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8600,7 +8885,7 @@
         <v>6</v>
       </c>
       <c r="F285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8621,7 +8906,7 @@
         <v>10</v>
       </c>
       <c r="F286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8642,7 +8927,7 @@
         <v>10</v>
       </c>
       <c r="F287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8663,7 +8948,7 @@
         <v>4</v>
       </c>
       <c r="F288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8684,7 +8969,7 @@
         <v>9</v>
       </c>
       <c r="F289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8705,7 +8990,7 @@
         <v>6</v>
       </c>
       <c r="F290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8726,7 +9011,7 @@
         <v>6</v>
       </c>
       <c r="F291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8747,7 +9032,7 @@
         <v>9</v>
       </c>
       <c r="F292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8768,7 +9053,7 @@
         <v>9</v>
       </c>
       <c r="F293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8789,7 +9074,7 @@
         <v>6</v>
       </c>
       <c r="F294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8810,7 +9095,7 @@
         <v>4</v>
       </c>
       <c r="F295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8831,7 +9116,7 @@
         <v>6</v>
       </c>
       <c r="F296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8852,7 +9137,7 @@
         <v>10</v>
       </c>
       <c r="F297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8873,7 +9158,7 @@
         <v>4</v>
       </c>
       <c r="F298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8894,7 +9179,7 @@
         <v>10</v>
       </c>
       <c r="F299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8915,7 +9200,7 @@
         <v>10</v>
       </c>
       <c r="F300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8936,7 +9221,7 @@
         <v>10</v>
       </c>
       <c r="F301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8957,7 +9242,7 @@
         <v>10</v>
       </c>
       <c r="F302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8978,7 +9263,7 @@
         <v>9</v>
       </c>
       <c r="F303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8999,7 +9284,7 @@
         <v>10</v>
       </c>
       <c r="F304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9020,7 +9305,7 @@
         <v>9</v>
       </c>
       <c r="F305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9041,7 +9326,7 @@
         <v>8</v>
       </c>
       <c r="F306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9062,7 +9347,7 @@
         <v>6</v>
       </c>
       <c r="F307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9083,7 +9368,7 @@
         <v>9</v>
       </c>
       <c r="F308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9104,7 +9389,7 @@
         <v>6</v>
       </c>
       <c r="F309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9125,7 +9410,7 @@
         <v>4</v>
       </c>
       <c r="F310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9146,7 +9431,7 @@
         <v>6</v>
       </c>
       <c r="F311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9167,7 +9452,7 @@
         <v>7</v>
       </c>
       <c r="F312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9188,7 +9473,7 @@
         <v>10</v>
       </c>
       <c r="F313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9209,7 +9494,7 @@
         <v>10</v>
       </c>
       <c r="F314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9230,7 +9515,7 @@
         <v>9</v>
       </c>
       <c r="F315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9251,7 +9536,7 @@
         <v>6</v>
       </c>
       <c r="F316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9272,7 +9557,7 @@
         <v>9</v>
       </c>
       <c r="F317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9293,7 +9578,7 @@
         <v>6</v>
       </c>
       <c r="F318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9314,7 +9599,7 @@
         <v>10</v>
       </c>
       <c r="F319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9335,7 +9620,7 @@
         <v>6</v>
       </c>
       <c r="F320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9356,7 +9641,7 @@
         <v>10</v>
       </c>
       <c r="F321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9377,7 +9662,7 @@
         <v>9</v>
       </c>
       <c r="F322">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9398,7 +9683,7 @@
         <v>7</v>
       </c>
       <c r="F323">
-        <f t="shared" ref="F323:F386" si="5">IF(C323=E323,1,0)</f>
+        <f t="shared" ref="F323:F386" si="6">IF(C323=E323,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9419,7 +9704,7 @@
         <v>10</v>
       </c>
       <c r="F324">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9440,7 +9725,7 @@
         <v>4</v>
       </c>
       <c r="F325">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9461,7 +9746,7 @@
         <v>7</v>
       </c>
       <c r="F326">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9482,7 +9767,7 @@
         <v>7</v>
       </c>
       <c r="F327">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9503,7 +9788,7 @@
         <v>10</v>
       </c>
       <c r="F328">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9524,7 +9809,7 @@
         <v>10</v>
       </c>
       <c r="F329">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9545,7 +9830,7 @@
         <v>6</v>
       </c>
       <c r="F330">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9566,7 +9851,7 @@
         <v>9</v>
       </c>
       <c r="F331">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9587,7 +9872,7 @@
         <v>6</v>
       </c>
       <c r="F332">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9608,7 +9893,7 @@
         <v>4</v>
       </c>
       <c r="F333">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9629,7 +9914,7 @@
         <v>10</v>
       </c>
       <c r="F334">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9650,7 +9935,7 @@
         <v>9</v>
       </c>
       <c r="F335">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9671,7 +9956,7 @@
         <v>6</v>
       </c>
       <c r="F336">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9692,7 +9977,7 @@
         <v>10</v>
       </c>
       <c r="F337">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9713,7 +9998,7 @@
         <v>4</v>
       </c>
       <c r="F338">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9734,7 +10019,7 @@
         <v>4</v>
       </c>
       <c r="F339">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9755,7 +10040,7 @@
         <v>10</v>
       </c>
       <c r="F340">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9776,7 +10061,7 @@
         <v>10</v>
       </c>
       <c r="F341">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9797,7 +10082,7 @@
         <v>6</v>
       </c>
       <c r="F342">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9818,7 +10103,7 @@
         <v>6</v>
       </c>
       <c r="F343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9839,7 +10124,7 @@
         <v>10</v>
       </c>
       <c r="F344">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9860,7 +10145,7 @@
         <v>10</v>
       </c>
       <c r="F345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9881,7 +10166,7 @@
         <v>9</v>
       </c>
       <c r="F346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9902,7 +10187,7 @@
         <v>6</v>
       </c>
       <c r="F347">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9923,7 +10208,7 @@
         <v>6</v>
       </c>
       <c r="F348">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9944,7 +10229,7 @@
         <v>5</v>
       </c>
       <c r="F349">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9965,7 +10250,7 @@
         <v>4</v>
       </c>
       <c r="F350">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9986,7 +10271,7 @@
         <v>6</v>
       </c>
       <c r="F351">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10007,7 +10292,7 @@
         <v>6</v>
       </c>
       <c r="F352">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10028,7 +10313,7 @@
         <v>7</v>
       </c>
       <c r="F353">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10049,7 +10334,7 @@
         <v>6</v>
       </c>
       <c r="F354">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10070,7 +10355,7 @@
         <v>10</v>
       </c>
       <c r="F355">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10091,7 +10376,7 @@
         <v>4</v>
       </c>
       <c r="F356">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10112,7 +10397,7 @@
         <v>4</v>
       </c>
       <c r="F357">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10133,7 +10418,7 @@
         <v>8</v>
       </c>
       <c r="F358">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10154,7 +10439,7 @@
         <v>4</v>
       </c>
       <c r="F359">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10175,7 +10460,7 @@
         <v>6</v>
       </c>
       <c r="F360">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10196,7 +10481,7 @@
         <v>10</v>
       </c>
       <c r="F361">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10217,7 +10502,7 @@
         <v>10</v>
       </c>
       <c r="F362">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10238,7 +10523,7 @@
         <v>6</v>
       </c>
       <c r="F363">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10259,7 +10544,7 @@
         <v>10</v>
       </c>
       <c r="F364">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10280,7 +10565,7 @@
         <v>9</v>
       </c>
       <c r="F365">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10301,7 +10586,7 @@
         <v>6</v>
       </c>
       <c r="F366">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10322,7 +10607,7 @@
         <v>6</v>
       </c>
       <c r="F367">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10343,7 +10628,7 @@
         <v>9</v>
       </c>
       <c r="F368">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10364,7 +10649,7 @@
         <v>10</v>
       </c>
       <c r="F369">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10385,7 +10670,7 @@
         <v>4</v>
       </c>
       <c r="F370">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10406,7 +10691,7 @@
         <v>7</v>
       </c>
       <c r="F371">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10427,7 +10712,7 @@
         <v>4</v>
       </c>
       <c r="F372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10448,7 +10733,7 @@
         <v>10</v>
       </c>
       <c r="F373">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10469,7 +10754,7 @@
         <v>7</v>
       </c>
       <c r="F374">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10490,7 +10775,7 @@
         <v>10</v>
       </c>
       <c r="F375">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10511,7 +10796,7 @@
         <v>10</v>
       </c>
       <c r="F376">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10532,7 +10817,7 @@
         <v>6</v>
       </c>
       <c r="F377">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10553,7 +10838,7 @@
         <v>4</v>
       </c>
       <c r="F378">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10574,7 +10859,7 @@
         <v>4</v>
       </c>
       <c r="F379">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10595,7 +10880,7 @@
         <v>10</v>
       </c>
       <c r="F380">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10616,7 +10901,7 @@
         <v>7</v>
       </c>
       <c r="F381">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10637,7 +10922,7 @@
         <v>6</v>
       </c>
       <c r="F382">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10658,7 +10943,7 @@
         <v>6</v>
       </c>
       <c r="F383">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10679,7 +10964,7 @@
         <v>6</v>
       </c>
       <c r="F384">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10700,7 +10985,7 @@
         <v>10</v>
       </c>
       <c r="F385">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10721,7 +11006,7 @@
         <v>4</v>
       </c>
       <c r="F386">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10742,7 +11027,7 @@
         <v>9</v>
       </c>
       <c r="F387">
-        <f t="shared" ref="F387:F450" si="6">IF(C387=E387,1,0)</f>
+        <f t="shared" ref="F387:F450" si="7">IF(C387=E387,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10763,7 +11048,7 @@
         <v>10</v>
       </c>
       <c r="F388">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10784,7 +11069,7 @@
         <v>4</v>
       </c>
       <c r="F389">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10805,7 +11090,7 @@
         <v>10</v>
       </c>
       <c r="F390">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10826,7 +11111,7 @@
         <v>4</v>
       </c>
       <c r="F391">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10847,7 +11132,7 @@
         <v>8</v>
       </c>
       <c r="F392">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10868,7 +11153,7 @@
         <v>10</v>
       </c>
       <c r="F393">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10889,7 +11174,7 @@
         <v>4</v>
       </c>
       <c r="F394">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10910,7 +11195,7 @@
         <v>10</v>
       </c>
       <c r="F395">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10931,7 +11216,7 @@
         <v>10</v>
       </c>
       <c r="F396">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10952,7 +11237,7 @@
         <v>10</v>
       </c>
       <c r="F397">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10973,7 +11258,7 @@
         <v>6</v>
       </c>
       <c r="F398">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -10994,7 +11279,7 @@
         <v>10</v>
       </c>
       <c r="F399">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11015,7 +11300,7 @@
         <v>7</v>
       </c>
       <c r="F400">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11036,7 +11321,7 @@
         <v>10</v>
       </c>
       <c r="F401">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11057,7 +11342,7 @@
         <v>9</v>
       </c>
       <c r="F402">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11078,7 +11363,7 @@
         <v>10</v>
       </c>
       <c r="F403">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11099,7 +11384,7 @@
         <v>9</v>
       </c>
       <c r="F404">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11120,7 +11405,7 @@
         <v>6</v>
       </c>
       <c r="F405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11141,7 +11426,7 @@
         <v>6</v>
       </c>
       <c r="F406">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11162,7 +11447,7 @@
         <v>9</v>
       </c>
       <c r="F407">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11183,7 +11468,7 @@
         <v>6</v>
       </c>
       <c r="F408">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11204,7 +11489,7 @@
         <v>10</v>
       </c>
       <c r="F409">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11225,7 +11510,7 @@
         <v>9</v>
       </c>
       <c r="F410">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11246,7 +11531,7 @@
         <v>6</v>
       </c>
       <c r="F411">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11267,7 +11552,7 @@
         <v>9</v>
       </c>
       <c r="F412">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11288,7 +11573,7 @@
         <v>10</v>
       </c>
       <c r="F413">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11309,7 +11594,7 @@
         <v>9</v>
       </c>
       <c r="F414">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11330,7 +11615,7 @@
         <v>10</v>
       </c>
       <c r="F415">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11351,7 +11636,7 @@
         <v>9</v>
       </c>
       <c r="F416">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11372,7 +11657,7 @@
         <v>10</v>
       </c>
       <c r="F417">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11393,7 +11678,7 @@
         <v>6</v>
       </c>
       <c r="F418">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11414,7 +11699,7 @@
         <v>10</v>
       </c>
       <c r="F419">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11435,7 +11720,7 @@
         <v>4</v>
       </c>
       <c r="F420">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11456,7 +11741,7 @@
         <v>4</v>
       </c>
       <c r="F421">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11477,7 +11762,7 @@
         <v>6</v>
       </c>
       <c r="F422">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11498,7 +11783,7 @@
         <v>6</v>
       </c>
       <c r="F423">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11519,7 +11804,7 @@
         <v>10</v>
       </c>
       <c r="F424">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11540,7 +11825,7 @@
         <v>6</v>
       </c>
       <c r="F425">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11561,7 +11846,7 @@
         <v>6</v>
       </c>
       <c r="F426">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11582,7 +11867,7 @@
         <v>6</v>
       </c>
       <c r="F427">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11603,7 +11888,7 @@
         <v>4</v>
       </c>
       <c r="F428">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11624,7 +11909,7 @@
         <v>9</v>
       </c>
       <c r="F429">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11645,7 +11930,7 @@
         <v>4</v>
       </c>
       <c r="F430">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11666,7 +11951,7 @@
         <v>10</v>
       </c>
       <c r="F431">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11687,7 +11972,7 @@
         <v>9</v>
       </c>
       <c r="F432">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11708,7 +11993,7 @@
         <v>6</v>
       </c>
       <c r="F433">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11729,7 +12014,7 @@
         <v>9</v>
       </c>
       <c r="F434">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11750,7 +12035,7 @@
         <v>9</v>
       </c>
       <c r="F435">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11771,7 +12056,7 @@
         <v>4</v>
       </c>
       <c r="F436">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11792,7 +12077,7 @@
         <v>7</v>
       </c>
       <c r="F437">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11813,7 +12098,7 @@
         <v>6</v>
       </c>
       <c r="F438">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11834,7 +12119,7 @@
         <v>10</v>
       </c>
       <c r="F439">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11855,7 +12140,7 @@
         <v>10</v>
       </c>
       <c r="F440">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11876,7 +12161,7 @@
         <v>10</v>
       </c>
       <c r="F441">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11897,7 +12182,7 @@
         <v>4</v>
       </c>
       <c r="F442">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11918,7 +12203,7 @@
         <v>4</v>
       </c>
       <c r="F443">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11939,7 +12224,7 @@
         <v>4</v>
       </c>
       <c r="F444">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11960,7 +12245,7 @@
         <v>10</v>
       </c>
       <c r="F445">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -11981,7 +12266,7 @@
         <v>10</v>
       </c>
       <c r="F446">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12002,7 +12287,7 @@
         <v>10</v>
       </c>
       <c r="F447">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12023,7 +12308,7 @@
         <v>6</v>
       </c>
       <c r="F448">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12044,7 +12329,7 @@
         <v>10</v>
       </c>
       <c r="F449">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12065,7 +12350,7 @@
         <v>4</v>
       </c>
       <c r="F450">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12086,7 +12371,7 @@
         <v>10</v>
       </c>
       <c r="F451">
-        <f t="shared" ref="F451:F514" si="7">IF(C451=E451,1,0)</f>
+        <f t="shared" ref="F451:F514" si="8">IF(C451=E451,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12107,7 +12392,7 @@
         <v>10</v>
       </c>
       <c r="F452">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12128,7 +12413,7 @@
         <v>6</v>
       </c>
       <c r="F453">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12149,7 +12434,7 @@
         <v>10</v>
       </c>
       <c r="F454">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12170,7 +12455,7 @@
         <v>6</v>
       </c>
       <c r="F455">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12191,7 +12476,7 @@
         <v>10</v>
       </c>
       <c r="F456">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12212,7 +12497,7 @@
         <v>9</v>
       </c>
       <c r="F457">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12233,7 +12518,7 @@
         <v>9</v>
       </c>
       <c r="F458">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12254,7 +12539,7 @@
         <v>6</v>
       </c>
       <c r="F459">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12275,7 +12560,7 @@
         <v>6</v>
       </c>
       <c r="F460">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12296,7 +12581,7 @@
         <v>10</v>
       </c>
       <c r="F461">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12317,7 +12602,7 @@
         <v>9</v>
       </c>
       <c r="F462">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12338,7 +12623,7 @@
         <v>9</v>
       </c>
       <c r="F463">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12359,7 +12644,7 @@
         <v>9</v>
       </c>
       <c r="F464">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12380,7 +12665,7 @@
         <v>6</v>
       </c>
       <c r="F465">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12401,7 +12686,7 @@
         <v>10</v>
       </c>
       <c r="F466">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12422,7 +12707,7 @@
         <v>10</v>
       </c>
       <c r="F467">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12443,7 +12728,7 @@
         <v>10</v>
       </c>
       <c r="F468">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12464,7 +12749,7 @@
         <v>6</v>
       </c>
       <c r="F469">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12485,7 +12770,7 @@
         <v>10</v>
       </c>
       <c r="F470">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12506,7 +12791,7 @@
         <v>10</v>
       </c>
       <c r="F471">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12527,7 +12812,7 @@
         <v>9</v>
       </c>
       <c r="F472">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12548,7 +12833,7 @@
         <v>10</v>
       </c>
       <c r="F473">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12569,7 +12854,7 @@
         <v>6</v>
       </c>
       <c r="F474">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12590,7 +12875,7 @@
         <v>6</v>
       </c>
       <c r="F475">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12611,7 +12896,7 @@
         <v>6</v>
       </c>
       <c r="F476">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12632,7 +12917,7 @@
         <v>10</v>
       </c>
       <c r="F477">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12653,7 +12938,7 @@
         <v>10</v>
       </c>
       <c r="F478">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12674,7 +12959,7 @@
         <v>9</v>
       </c>
       <c r="F479">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12695,7 +12980,7 @@
         <v>4</v>
       </c>
       <c r="F480">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12716,7 +13001,7 @@
         <v>10</v>
       </c>
       <c r="F481">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12737,7 +13022,7 @@
         <v>10</v>
       </c>
       <c r="F482">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12758,7 +13043,7 @@
         <v>6</v>
       </c>
       <c r="F483">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12779,7 +13064,7 @@
         <v>6</v>
       </c>
       <c r="F484">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12800,7 +13085,7 @@
         <v>6</v>
       </c>
       <c r="F485">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12821,7 +13106,7 @@
         <v>10</v>
       </c>
       <c r="F486">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12842,7 +13127,7 @@
         <v>9</v>
       </c>
       <c r="F487">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12863,7 +13148,7 @@
         <v>10</v>
       </c>
       <c r="F488">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12884,7 +13169,7 @@
         <v>4</v>
       </c>
       <c r="F489">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12905,7 +13190,7 @@
         <v>10</v>
       </c>
       <c r="F490">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12926,7 +13211,7 @@
         <v>6</v>
       </c>
       <c r="F491">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12947,7 +13232,7 @@
         <v>6</v>
       </c>
       <c r="F492">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12968,7 +13253,7 @@
         <v>10</v>
       </c>
       <c r="F493">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -12989,7 +13274,7 @@
         <v>4</v>
       </c>
       <c r="F494">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13010,7 +13295,7 @@
         <v>10</v>
       </c>
       <c r="F495">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13031,7 +13316,7 @@
         <v>10</v>
       </c>
       <c r="F496">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13052,7 +13337,7 @@
         <v>10</v>
       </c>
       <c r="F497">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13073,7 +13358,7 @@
         <v>10</v>
       </c>
       <c r="F498">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13094,7 +13379,7 @@
         <v>9</v>
       </c>
       <c r="F499">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13115,7 +13400,7 @@
         <v>10</v>
       </c>
       <c r="F500">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13136,7 +13421,7 @@
         <v>4</v>
       </c>
       <c r="F501">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13157,7 +13442,7 @@
         <v>6</v>
       </c>
       <c r="F502">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13178,7 +13463,7 @@
         <v>10</v>
       </c>
       <c r="F503">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13199,7 +13484,7 @@
         <v>10</v>
       </c>
       <c r="F504">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13220,7 +13505,7 @@
         <v>9</v>
       </c>
       <c r="F505">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13241,7 +13526,7 @@
         <v>6</v>
       </c>
       <c r="F506">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13262,7 +13547,7 @@
         <v>7</v>
       </c>
       <c r="F507">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13283,7 +13568,7 @@
         <v>4</v>
       </c>
       <c r="F508">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13304,7 +13589,7 @@
         <v>6</v>
       </c>
       <c r="F509">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13325,7 +13610,7 @@
         <v>4</v>
       </c>
       <c r="F510">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13346,7 +13631,7 @@
         <v>10</v>
       </c>
       <c r="F511">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13367,7 +13652,7 @@
         <v>6</v>
       </c>
       <c r="F512">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13388,7 +13673,7 @@
         <v>10</v>
       </c>
       <c r="F513">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13409,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="F514">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -13430,7 +13715,7 @@
         <v>10</v>
       </c>
       <c r="F515">
-        <f t="shared" ref="F515:F578" si="8">IF(C515=E515,1,0)</f>
+        <f t="shared" ref="F515:F578" si="9">IF(C515=E515,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -13451,7 +13736,7 @@
         <v>10</v>
       </c>
       <c r="F516">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13472,7 +13757,7 @@
         <v>9</v>
       </c>
       <c r="F517">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13493,7 +13778,7 @@
         <v>6</v>
       </c>
       <c r="F518">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13514,7 +13799,7 @@
         <v>6</v>
       </c>
       <c r="F519">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13535,7 +13820,7 @@
         <v>5</v>
       </c>
       <c r="F520">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13556,7 +13841,7 @@
         <v>6</v>
       </c>
       <c r="F521">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13577,7 +13862,7 @@
         <v>9</v>
       </c>
       <c r="F522">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13598,7 +13883,7 @@
         <v>4</v>
       </c>
       <c r="F523">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13619,7 +13904,7 @@
         <v>9</v>
       </c>
       <c r="F524">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13640,7 +13925,7 @@
         <v>6</v>
       </c>
       <c r="F525">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13661,7 +13946,7 @@
         <v>10</v>
       </c>
       <c r="F526">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13682,7 +13967,7 @@
         <v>6</v>
       </c>
       <c r="F527">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13703,7 +13988,7 @@
         <v>10</v>
       </c>
       <c r="F528">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13724,7 +14009,7 @@
         <v>9</v>
       </c>
       <c r="F529">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13745,7 +14030,7 @@
         <v>4</v>
       </c>
       <c r="F530">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13766,7 +14051,7 @@
         <v>9</v>
       </c>
       <c r="F531">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13787,7 +14072,7 @@
         <v>10</v>
       </c>
       <c r="F532">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13808,7 +14093,7 @@
         <v>10</v>
       </c>
       <c r="F533">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13829,7 +14114,7 @@
         <v>10</v>
       </c>
       <c r="F534">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13850,7 +14135,7 @@
         <v>4</v>
       </c>
       <c r="F535">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13871,7 +14156,7 @@
         <v>10</v>
       </c>
       <c r="F536">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13892,7 +14177,7 @@
         <v>10</v>
       </c>
       <c r="F537">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13913,7 +14198,7 @@
         <v>10</v>
       </c>
       <c r="F538">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13934,7 +14219,7 @@
         <v>9</v>
       </c>
       <c r="F539">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -13955,7 +14240,7 @@
         <v>4</v>
       </c>
       <c r="F540">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13976,7 +14261,7 @@
         <v>4</v>
       </c>
       <c r="F541">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -13997,7 +14282,7 @@
         <v>7</v>
       </c>
       <c r="F542">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14018,7 +14303,7 @@
         <v>10</v>
       </c>
       <c r="F543">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14039,7 +14324,7 @@
         <v>9</v>
       </c>
       <c r="F544">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14060,7 +14345,7 @@
         <v>9</v>
       </c>
       <c r="F545">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14081,7 +14366,7 @@
         <v>10</v>
       </c>
       <c r="F546">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14102,7 +14387,7 @@
         <v>10</v>
       </c>
       <c r="F547">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14123,7 +14408,7 @@
         <v>10</v>
       </c>
       <c r="F548">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14144,7 +14429,7 @@
         <v>9</v>
       </c>
       <c r="F549">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14165,7 +14450,7 @@
         <v>6</v>
       </c>
       <c r="F550">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14186,7 +14471,7 @@
         <v>6</v>
       </c>
       <c r="F551">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14207,7 +14492,7 @@
         <v>4</v>
       </c>
       <c r="F552">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14228,7 +14513,7 @@
         <v>9</v>
       </c>
       <c r="F553">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14249,7 +14534,7 @@
         <v>10</v>
       </c>
       <c r="F554">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14270,7 +14555,7 @@
         <v>8</v>
       </c>
       <c r="F555">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14291,7 +14576,7 @@
         <v>10</v>
       </c>
       <c r="F556">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14312,7 +14597,7 @@
         <v>9</v>
       </c>
       <c r="F557">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14333,7 +14618,7 @@
         <v>4</v>
       </c>
       <c r="F558">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14354,7 +14639,7 @@
         <v>9</v>
       </c>
       <c r="F559">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14375,7 +14660,7 @@
         <v>10</v>
       </c>
       <c r="F560">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14396,7 +14681,7 @@
         <v>9</v>
       </c>
       <c r="F561">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14417,7 +14702,7 @@
         <v>6</v>
       </c>
       <c r="F562">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14438,7 +14723,7 @@
         <v>6</v>
       </c>
       <c r="F563">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14459,7 +14744,7 @@
         <v>10</v>
       </c>
       <c r="F564">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14480,7 +14765,7 @@
         <v>10</v>
       </c>
       <c r="F565">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14501,7 +14786,7 @@
         <v>6</v>
       </c>
       <c r="F566">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14522,7 +14807,7 @@
         <v>6</v>
       </c>
       <c r="F567">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14543,7 +14828,7 @@
         <v>6</v>
       </c>
       <c r="F568">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14564,7 +14849,7 @@
         <v>4</v>
       </c>
       <c r="F569">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14585,7 +14870,7 @@
         <v>8</v>
       </c>
       <c r="F570">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14606,7 +14891,7 @@
         <v>6</v>
       </c>
       <c r="F571">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14627,7 +14912,7 @@
         <v>8</v>
       </c>
       <c r="F572">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14648,7 +14933,7 @@
         <v>9</v>
       </c>
       <c r="F573">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14669,7 +14954,7 @@
         <v>6</v>
       </c>
       <c r="F574">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14690,7 +14975,7 @@
         <v>9</v>
       </c>
       <c r="F575">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14711,7 +14996,7 @@
         <v>6</v>
       </c>
       <c r="F576">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14732,7 +15017,7 @@
         <v>10</v>
       </c>
       <c r="F577">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14753,7 +15038,7 @@
         <v>10</v>
       </c>
       <c r="F578">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14774,7 +15059,7 @@
         <v>9</v>
       </c>
       <c r="F579">
-        <f t="shared" ref="F579:F642" si="9">IF(C579=E579,1,0)</f>
+        <f t="shared" ref="F579:F642" si="10">IF(C579=E579,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -14795,7 +15080,7 @@
         <v>10</v>
       </c>
       <c r="F580">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -14816,7 +15101,7 @@
         <v>10</v>
       </c>
       <c r="F581">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -14837,7 +15122,7 @@
         <v>10</v>
       </c>
       <c r="F582">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -14858,7 +15143,7 @@
         <v>10</v>
       </c>
       <c r="F583">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -14879,7 +15164,7 @@
         <v>4</v>
       </c>
       <c r="F584">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -14900,7 +15185,7 @@
         <v>4</v>
       </c>
       <c r="F585">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -14921,7 +15206,7 @@
         <v>9</v>
       </c>
       <c r="F586">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14942,7 +15227,7 @@
         <v>9</v>
       </c>
       <c r="F587">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14963,7 +15248,7 @@
         <v>10</v>
       </c>
       <c r="F588">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -14984,7 +15269,7 @@
         <v>6</v>
       </c>
       <c r="F589">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15005,7 +15290,7 @@
         <v>10</v>
       </c>
       <c r="F590">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15026,7 +15311,7 @@
         <v>10</v>
       </c>
       <c r="F591">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15047,7 +15332,7 @@
         <v>6</v>
       </c>
       <c r="F592">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15068,7 +15353,7 @@
         <v>4</v>
       </c>
       <c r="F593">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15089,7 +15374,7 @@
         <v>9</v>
       </c>
       <c r="F594">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15110,7 +15395,7 @@
         <v>4</v>
       </c>
       <c r="F595">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15131,7 +15416,7 @@
         <v>6</v>
       </c>
       <c r="F596">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15152,7 +15437,7 @@
         <v>6</v>
       </c>
       <c r="F597">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15173,7 +15458,7 @@
         <v>10</v>
       </c>
       <c r="F598">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15194,7 +15479,7 @@
         <v>4</v>
       </c>
       <c r="F599">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15215,7 +15500,7 @@
         <v>6</v>
       </c>
       <c r="F600">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15236,7 +15521,7 @@
         <v>6</v>
       </c>
       <c r="F601">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15257,7 +15542,7 @@
         <v>9</v>
       </c>
       <c r="F602">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15278,7 +15563,7 @@
         <v>6</v>
       </c>
       <c r="F603">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15299,7 +15584,7 @@
         <v>4</v>
       </c>
       <c r="F604">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15320,7 +15605,7 @@
         <v>10</v>
       </c>
       <c r="F605">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15341,7 +15626,7 @@
         <v>10</v>
       </c>
       <c r="F606">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15362,7 +15647,7 @@
         <v>4</v>
       </c>
       <c r="F607">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15383,7 +15668,7 @@
         <v>6</v>
       </c>
       <c r="F608">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15404,7 +15689,7 @@
         <v>6</v>
       </c>
       <c r="F609">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15425,7 +15710,7 @@
         <v>6</v>
       </c>
       <c r="F610">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15446,7 +15731,7 @@
         <v>10</v>
       </c>
       <c r="F611">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15467,7 +15752,7 @@
         <v>4</v>
       </c>
       <c r="F612">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15488,7 +15773,7 @@
         <v>9</v>
       </c>
       <c r="F613">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15509,7 +15794,7 @@
         <v>10</v>
       </c>
       <c r="F614">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15530,7 +15815,7 @@
         <v>10</v>
       </c>
       <c r="F615">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15551,7 +15836,7 @@
         <v>4</v>
       </c>
       <c r="F616">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15572,7 +15857,7 @@
         <v>10</v>
       </c>
       <c r="F617">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15593,7 +15878,7 @@
         <v>10</v>
       </c>
       <c r="F618">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15614,7 +15899,7 @@
         <v>4</v>
       </c>
       <c r="F619">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15635,7 +15920,7 @@
         <v>9</v>
       </c>
       <c r="F620">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15656,7 +15941,7 @@
         <v>4</v>
       </c>
       <c r="F621">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15677,7 +15962,7 @@
         <v>10</v>
       </c>
       <c r="F622">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15698,7 +15983,7 @@
         <v>6</v>
       </c>
       <c r="F623">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15719,7 +16004,7 @@
         <v>9</v>
       </c>
       <c r="F624">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15740,7 +16025,7 @@
         <v>6</v>
       </c>
       <c r="F625">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15761,7 +16046,7 @@
         <v>6</v>
       </c>
       <c r="F626">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15782,7 +16067,7 @@
         <v>10</v>
       </c>
       <c r="F627">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15803,7 +16088,7 @@
         <v>6</v>
       </c>
       <c r="F628">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15824,7 +16109,7 @@
         <v>6</v>
       </c>
       <c r="F629">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15845,7 +16130,7 @@
         <v>6</v>
       </c>
       <c r="F630">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15866,7 +16151,7 @@
         <v>6</v>
       </c>
       <c r="F631">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15887,7 +16172,7 @@
         <v>10</v>
       </c>
       <c r="F632">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15908,7 +16193,7 @@
         <v>9</v>
       </c>
       <c r="F633">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -15929,7 +16214,7 @@
         <v>9</v>
       </c>
       <c r="F634">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15950,7 +16235,7 @@
         <v>6</v>
       </c>
       <c r="F635">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15971,7 +16256,7 @@
         <v>10</v>
       </c>
       <c r="F636">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -15992,7 +16277,7 @@
         <v>6</v>
       </c>
       <c r="F637">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -16013,7 +16298,7 @@
         <v>9</v>
       </c>
       <c r="F638">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -16034,7 +16319,7 @@
         <v>10</v>
       </c>
       <c r="F639">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -16055,7 +16340,7 @@
         <v>9</v>
       </c>
       <c r="F640">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -16076,7 +16361,7 @@
         <v>8</v>
       </c>
       <c r="F641">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -16097,7 +16382,7 @@
         <v>9</v>
       </c>
       <c r="F642">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -16118,7 +16403,7 @@
         <v>4</v>
       </c>
       <c r="F643">
-        <f t="shared" ref="F643:F695" si="10">IF(C643=E643,1,0)</f>
+        <f t="shared" ref="F643:F695" si="11">IF(C643=E643,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16139,7 +16424,7 @@
         <v>9</v>
       </c>
       <c r="F644">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16160,7 +16445,7 @@
         <v>6</v>
       </c>
       <c r="F645">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16181,7 +16466,7 @@
         <v>10</v>
       </c>
       <c r="F646">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16202,7 +16487,7 @@
         <v>9</v>
       </c>
       <c r="F647">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16223,7 +16508,7 @@
         <v>4</v>
       </c>
       <c r="F648">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16244,7 +16529,7 @@
         <v>10</v>
       </c>
       <c r="F649">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16265,7 +16550,7 @@
         <v>10</v>
       </c>
       <c r="F650">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16286,7 +16571,7 @@
         <v>8</v>
       </c>
       <c r="F651">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16307,7 +16592,7 @@
         <v>8</v>
       </c>
       <c r="F652">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16328,7 +16613,7 @@
         <v>10</v>
       </c>
       <c r="F653">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16349,7 +16634,7 @@
         <v>10</v>
       </c>
       <c r="F654">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16370,7 +16655,7 @@
         <v>6</v>
       </c>
       <c r="F655">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16391,7 +16676,7 @@
         <v>10</v>
       </c>
       <c r="F656">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16412,7 +16697,7 @@
         <v>4</v>
       </c>
       <c r="F657">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16433,7 +16718,7 @@
         <v>4</v>
       </c>
       <c r="F658">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16454,7 +16739,7 @@
         <v>10</v>
       </c>
       <c r="F659">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16475,7 +16760,7 @@
         <v>6</v>
       </c>
       <c r="F660">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16496,7 +16781,7 @@
         <v>7</v>
       </c>
       <c r="F661">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16517,7 +16802,7 @@
         <v>4</v>
       </c>
       <c r="F662">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16538,7 +16823,7 @@
         <v>6</v>
       </c>
       <c r="F663">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16559,7 +16844,7 @@
         <v>9</v>
       </c>
       <c r="F664">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16580,7 +16865,7 @@
         <v>10</v>
       </c>
       <c r="F665">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16601,7 +16886,7 @@
         <v>10</v>
       </c>
       <c r="F666">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16622,7 +16907,7 @@
         <v>9</v>
       </c>
       <c r="F667">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16643,7 +16928,7 @@
         <v>6</v>
       </c>
       <c r="F668">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16664,7 +16949,7 @@
         <v>7</v>
       </c>
       <c r="F669">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16685,7 +16970,7 @@
         <v>10</v>
       </c>
       <c r="F670">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16706,7 +16991,7 @@
         <v>6</v>
       </c>
       <c r="F671">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16727,7 +17012,7 @@
         <v>10</v>
       </c>
       <c r="F672">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16748,7 +17033,7 @@
         <v>10</v>
       </c>
       <c r="F673">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16769,7 +17054,7 @@
         <v>10</v>
       </c>
       <c r="F674">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16790,7 +17075,7 @@
         <v>6</v>
       </c>
       <c r="F675">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16811,7 +17096,7 @@
         <v>10</v>
       </c>
       <c r="F676">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16832,7 +17117,7 @@
         <v>4</v>
       </c>
       <c r="F677">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16853,7 +17138,7 @@
         <v>10</v>
       </c>
       <c r="F678">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16874,7 +17159,7 @@
         <v>6</v>
       </c>
       <c r="F679">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16895,7 +17180,7 @@
         <v>9</v>
       </c>
       <c r="F680">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16916,7 +17201,7 @@
         <v>4</v>
       </c>
       <c r="F681">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16937,7 +17222,7 @@
         <v>6</v>
       </c>
       <c r="F682">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16958,7 +17243,7 @@
         <v>9</v>
       </c>
       <c r="F683">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -16979,7 +17264,7 @@
         <v>6</v>
       </c>
       <c r="F684">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17000,7 +17285,7 @@
         <v>9</v>
       </c>
       <c r="F685">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17021,7 +17306,7 @@
         <v>10</v>
       </c>
       <c r="F686">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -17042,7 +17327,7 @@
         <v>10</v>
       </c>
       <c r="F687">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17063,7 +17348,7 @@
         <v>10</v>
       </c>
       <c r="F688">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -17084,7 +17369,7 @@
         <v>9</v>
       </c>
       <c r="F689">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -17105,7 +17390,7 @@
         <v>6</v>
       </c>
       <c r="F690">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17126,7 +17411,7 @@
         <v>10</v>
       </c>
       <c r="F691">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -17147,7 +17432,7 @@
         <v>10</v>
       </c>
       <c r="F692">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17168,7 +17453,7 @@
         <v>9</v>
       </c>
       <c r="F693">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -17189,13 +17474,13 @@
         <v>4</v>
       </c>
       <c r="F694">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F695">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
